--- a/biology/Botanique/Faramea_lourteigiana/Faramea_lourteigiana.xlsx
+++ b/biology/Botanique/Faramea_lourteigiana/Faramea_lourteigiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Faramea lourteigiana est une espèce d'arbuste endémique des Guyanes, appartenant à la famille des Rubiaceae.
-Il est connu en Guyane sous les noms de bois bandé, ti bois bandé (Créole), waaduk (Palikur) ou baaso, bande bwa (Aluku)[4].
+Il est connu en Guyane sous les noms de bois bandé, ti bois bandé (Créole), waaduk (Palikur) ou baaso, bande bwa (Aluku).
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En 1953, Lemée en propose la description suivante de Faramea lourteigiana :
 « F. species ? (Coffea guianensis Aubl. , Ixora g. Spreng.) d'apres Trav. bot. néerl. 1940 (Plantes d'Aublet dans l'herbier Denaiffe). Feuilles lancéolées obtusément acuminées très glabres ; pédoncules axillaires agglomérés très courts uniflores ; fleurs petites 4-mères, corolle à lobes aigus, anthères incluses ; baie globuleuse violacée. »
-— Albert Lemée, 1953.[5]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Faramea lourteigiana est endémique du Suriname, de Guyane et d'Amapá.
 </t>
@@ -575,11 +591,13 @@
           <t>Ecologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Faramea lourteigiana est un arbuste du sous-bois de la forêt ancienne parfois abondant localement[4].
-Ses fruits sont disséminés par les grands oiseaux du sous-bois (grand tinamou, agami, hocco et  marail)[6].
-Sa taxonomie a été étudiée[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Faramea lourteigiana est un arbuste du sous-bois de la forêt ancienne parfois abondant localement.
+Ses fruits sont disséminés par les grands oiseaux du sous-bois (grand tinamou, agami, hocco et  marail).
+Sa taxonomie a été étudiée.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane, Faramea lourteigiana est réputé aphrodisiaque chez les créoles et les Aluku[4],[8],[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane, Faramea lourteigiana est réputé aphrodisiaque chez les créoles et les Aluku.
 </t>
         </is>
       </c>
@@ -639,9 +659,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet a premièrement décrit Faramea lourteigiana sous le nom de Coffea guianensis et en a proposé le protologue suivant[10] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet a premièrement décrit Faramea lourteigiana sous le nom de Coffea guianensis et en a proposé le protologue suivant : 
 « 1. COFFEA (Guianenſis) floribus quadrifidis ; baccis exiguis, violaceis, diſpermis. (Tabula 57.).
 Fruticulus pedalis &amp; bipedalis, ramoſus ; ramulis tetragonis; nodoſis. Folia oppoſita, ovato-oblonga, acuta, glabra, integerrima, brevi petiolata. Stipula oblonga, acuta, utrinque intra baſim petiolorum. Flores faſciculati, ſeſſiles, axillates. Corolla alba.
 Flotebat fructumque ferebat Septembri.
